--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -501,7 +501,7 @@
   <si>
     <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
 処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
-このIDは業務手順によって定められた処方オーダーに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
     <t>これは業務IDであって、リソースに対するIDではない。</t>
@@ -740,10 +740,10 @@
     <t>requestIdentifier</t>
   </si>
   <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>処方オーダに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -770,11 +770,10 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>JP Coreでは"active"に固定される。
-オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。</t>
+  </si>
+  <si>
+    <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -801,13 +800,10 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>現状の理由</t>
-  </si>
-  <si>
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -828,20 +824,16 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>JP Coreでは "order" に固定される。
-投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
-  </si>
-  <si>
-    <t>処方をオーダーする場合、MedicationRequestのどの段階でオーダーしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダーをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。+    <t>投薬指示の意図</t>
+  </si>
+  <si>
+    <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
+  </si>
+  <si>
+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -874,7 +866,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -890,10 +882,10 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>オーダの優先度</t>
+  </si>
+  <si>
+    <t>このMedicationRequestオーダの優先度。他のオーダと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -924,10 +916,10 @@
     <t>要求が禁止された行為であればTrue</t>
   </si>
   <si>
-    <t>このオーダーが実施していけないものであればTrueを表示される</t>
-  </si>
-  <si>
-    <t>もし、doNotPerformに指定がなければ、オーダーは実施してもよいものである。(たとえば、「実施せよ」)</t>
+    <t>このオーダが実施していけないものであればTrueを表示される</t>
+  </si>
+  <si>
+    <t>もし、doNotPerformに指定がなければ、オーダは実施してもよいものである。(たとえば、「実施せよ」)</t>
   </si>
   <si>
     <t>SubstanceAdministration.actionNegationInd</t>
@@ -1023,7 +1015,7 @@
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダーの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1054,7 +1046,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Core profileでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1083,7 +1075,7 @@
     <t>薬剤オーダについて補助的情報</t>
   </si>
   <si>
-    <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
+    <t>薬剤をオーダするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
     <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
@@ -1102,10 +1094,10 @@
 </t>
   </si>
   <si>
-    <t>この処方オーダーが最初に記述された日</t>
-  </si>
-  <si>
-    <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <t>この処方オーダが最初に記述された日</t>
+  </si>
+  <si>
+    <t>JP Coreでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1130,11 +1122,11 @@
 </t>
   </si>
   <si>
-    <t>このオーダーを発行した人・物</t>
-  </si>
-  <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
-このオーダーを発行した責任のある人、組織、機器。</t>
+    <t>このオーダを発行した人・物</t>
+  </si>
+  <si>
+    <t>JP Coreではこのエレメントに対する規定はない。
+このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1177,7 +1169,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1193,11 +1185,11 @@
 </t>
   </si>
   <si>
-    <t>投薬オーダーの入力者</t>
-  </si>
-  <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
-たとえば口答指示や電話でのオーダーにより、他の人の代理で処方を入力した人。</t>
+    <t>投薬オーダの入力者</t>
+  </si>
+  <si>
+    <t>JP Coreではこのエレメントに対する規定はない。
+たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1213,7 +1205,7 @@
   </si>
   <si>
     <t>このエレメントに対するJP Coreの規定はない。
-薬剤をオーダーするあるいはしないことを示した理由。</t>
+薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
@@ -1250,10 +1242,10 @@
     <t>処方箋が書かれた理由について補足するCondition ResourceまたはObservation Resource</t>
   </si>
   <si>
-    <t>薬剤がなぜオーダーされたのかを説明する条件や観察。</t>
-  </si>
-  <si>
-    <t>薬剤オーダーの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
+    <t>薬剤がなぜオーダされたのかを説明する条件や観察。</t>
+  </si>
+  <si>
+    <t>薬剤オーダの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1300,10 +1292,10 @@
 </t>
   </si>
   <si>
-    <t>オーダーが実施される根拠</t>
-  </si>
-  <si>
-    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダー。</t>
+    <t>オーダが実施される根拠</t>
+  </si>
+  <si>
+    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダ。</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1315,7 +1307,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRequestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1383,7 +1375,7 @@
     <t>他の属性では伝えることができなかったMedicationRequestについての付加的情報。</t>
   </si>
   <si>
-    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザーの行動を強制することはほぼ不可能であるからである。</t>
+    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザの行動を強制することはほぼ不可能であるからである。</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1402,10 +1394,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1424,7 +1413,7 @@
     <t>調剤・払い出しについての承認事項</t>
   </si>
   <si>
-    <t>薬剤オーダー(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダーとの一部としての薬剤の払い出しあるいは提供。この情報はオーダーとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
+    <t>薬剤オーダ(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダとの一部としての薬剤の払い出しあるいは提供。この情報はオーダとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
@@ -1649,7 +1638,7 @@
     <t>許可されたリフィル回数</t>
   </si>
   <si>
-    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダが「30錠に加えて3回リフィル可」であれば、このオーダで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
   </si>
   <si>
     <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
@@ -1682,7 +1671,7 @@
     <t>供給される製品が使用されるか、あるいは払い出しが想定されている時間を指定する期間。</t>
   </si>
   <si>
-    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダーされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
+    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -1878,7 +1867,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -1896,7 +1885,7 @@
     <t>代替品にしなければならなかった、あるいは代替品が認められなかった理由を示す。</t>
   </si>
   <si>
-    <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1921,10 +1910,10 @@
 </t>
   </si>
   <si>
-    <t>前回のオーダー/処方</t>
-  </si>
-  <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
+    <t>前回のオーダ/処方</t>
+  </si>
+  <si>
+    <t>関連する先行オーダや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -1966,7 +1955,7 @@
     <t>ライフサイクルで関心のあるイベントのリスト</t>
   </si>
   <si>
-    <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
+    <t>このリソースの現在のバージョンをユーザから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
     <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
@@ -2301,7 +2290,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2315,7 +2304,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5906,10 +5895,10 @@
         <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5935,13 +5924,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5974,13 +5963,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5991,7 +5980,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6017,13 +6006,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6031,7 +6020,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6052,10 +6041,10 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6073,7 +6062,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6088,16 +6077,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6105,7 +6094,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6131,13 +6120,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6167,7 +6156,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6185,7 +6174,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6203,13 +6192,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6217,7 +6206,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6243,13 +6232,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6278,10 +6267,10 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6299,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6314,16 +6303,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6331,7 +6320,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6354,16 +6343,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6413,7 +6402,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6434,7 +6423,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6445,7 +6434,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6468,13 +6457,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6525,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6546,7 +6535,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6557,7 +6546,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6580,16 +6569,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6627,17 +6616,17 @@
         <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6652,27 +6641,27 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>80</v>
@@ -6694,16 +6683,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6753,7 +6742,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6768,24 +6757,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6808,16 +6797,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6867,7 +6856,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6882,24 +6871,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6922,16 +6911,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6981,7 +6970,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6996,24 +6985,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7036,16 +7025,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7095,7 +7084,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7110,16 +7099,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7127,7 +7116,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7150,13 +7139,13 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7207,7 +7196,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7222,24 +7211,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7262,16 +7251,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7321,7 +7310,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7336,16 +7325,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7353,7 +7342,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7376,16 +7365,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7435,7 +7424,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7450,16 +7439,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7467,7 +7456,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7493,13 +7482,13 @@
         <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7525,11 +7514,11 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7547,7 +7536,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7562,13 +7551,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7568,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7602,16 +7591,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7661,7 +7650,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7682,10 +7671,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7693,7 +7682,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7719,13 +7708,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7751,13 +7740,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7775,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7790,24 +7779,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7830,16 +7819,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7889,7 +7878,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7904,16 +7893,16 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7921,7 +7910,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7944,16 +7933,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8003,7 +7992,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8018,13 +8007,13 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8035,7 +8024,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8061,13 +8050,13 @@
         <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8117,7 +8106,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8138,7 +8127,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8149,7 +8138,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,16 +8161,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8231,7 +8220,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8246,13 +8235,13 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8263,7 +8252,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8289,14 +8278,14 @@
         <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8345,7 +8334,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8360,13 +8349,13 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8377,7 +8366,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8403,13 +8392,13 @@
         <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8435,13 +8424,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8459,7 +8448,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8480,7 +8469,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8491,7 +8480,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8514,16 +8503,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8573,7 +8562,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8588,13 +8577,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8605,7 +8594,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8628,16 +8617,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8687,7 +8676,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8702,13 +8691,13 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8719,7 +8708,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8742,16 +8731,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8801,7 +8790,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8822,7 +8811,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8833,7 +8822,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8856,13 +8845,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8913,7 +8902,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8931,10 +8920,10 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8945,7 +8934,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8971,10 +8960,10 @@
         <v>168</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9057,7 +9046,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9167,10 +9156,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
@@ -9192,13 +9181,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9281,10 +9270,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>80</v>
@@ -9306,13 +9295,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9395,11 +9384,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9421,10 +9410,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>149</v>
@@ -9479,7 +9468,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9511,7 +9500,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9534,16 +9523,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9593,7 +9582,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9614,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9625,7 +9614,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9737,7 +9726,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9851,11 +9840,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9877,10 +9866,10 @@
         <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>149</v>
@@ -9935,7 +9924,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9967,7 +9956,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9990,16 +9979,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10049,7 +10038,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10061,7 +10050,7 @@
         <v>144</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -10070,18 +10059,18 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10104,16 +10093,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10163,7 +10152,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10184,7 +10173,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10195,7 +10184,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10218,16 +10207,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10277,7 +10266,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10298,7 +10287,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10309,7 +10298,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10335,16 +10324,16 @@
         <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10393,7 +10382,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10411,10 +10400,10 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10425,7 +10414,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10537,7 +10526,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10651,7 +10640,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10674,16 +10663,16 @@
         <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10733,7 +10722,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10742,7 +10731,7 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10754,18 +10743,18 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10788,23 +10777,23 @@
         <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>80</v>
@@ -10849,7 +10838,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10858,7 +10847,7 @@
         <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>100</v>
@@ -10870,18 +10859,18 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10904,16 +10893,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10963,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10981,21 +10970,21 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11018,16 +11007,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11077,7 +11066,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11089,7 +11078,7 @@
         <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11098,18 +11087,18 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11132,16 +11121,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11191,7 +11180,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11209,10 +11198,10 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11223,7 +11212,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11335,7 +11324,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11449,7 +11438,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11472,19 +11461,19 @@
         <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
@@ -11533,7 +11522,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11554,18 +11543,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11591,20 +11580,20 @@
         <v>108</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P82" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>80</v>
@@ -11628,10 +11617,10 @@
         <v>183</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>80</v>
@@ -11649,7 +11638,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11670,18 +11659,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11707,21 +11696,21 @@
         <v>168</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>80</v>
@@ -11763,7 +11752,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11784,18 +11773,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11821,21 +11810,21 @@
         <v>102</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
@@ -11877,7 +11866,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11886,7 +11875,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11898,18 +11887,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11935,23 +11924,23 @@
         <v>108</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>80</v>
@@ -11993,7 +11982,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12014,18 +12003,18 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12048,16 +12037,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12107,7 +12096,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12128,10 +12117,10 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12139,7 +12128,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12162,13 +12151,13 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12219,7 +12208,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12237,10 +12226,10 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12251,7 +12240,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12363,7 +12352,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12477,11 +12466,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12503,10 +12492,10 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>149</v>
@@ -12561,7 +12550,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12593,7 +12582,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12619,13 +12608,13 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12655,7 +12644,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12673,7 +12662,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>88</v>
@@ -12691,21 +12680,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12731,13 +12720,13 @@
         <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12763,13 +12752,13 @@
         <v>80</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
@@ -12787,7 +12776,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12805,21 +12794,21 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12842,16 +12831,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12901,7 +12890,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12916,13 +12905,13 @@
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12933,11 +12922,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12956,16 +12945,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13015,7 +13004,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13036,7 +13025,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13047,7 +13036,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13070,16 +13059,16 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13129,7 +13118,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13144,13 +13133,13 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
